--- a/data/input/absenteeism_data_41.xlsx
+++ b/data/input/absenteeism_data_41.xlsx
@@ -476,79 +476,79 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>50711</v>
+        <v>24460</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Francisco Barros</t>
+          <t>Ana Julia da Paz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45097</v>
+        <v>45078</v>
       </c>
       <c r="G2" t="n">
-        <v>6851.82</v>
+        <v>6234.81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>73741</v>
+        <v>92848</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Caio Rocha</t>
+          <t>Dr. Bernardo da Rocha</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45091</v>
+        <v>45078</v>
       </c>
       <c r="G3" t="n">
-        <v>9653.23</v>
+        <v>10630.08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>32356</v>
+        <v>73947</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ana Carolina Vieira</t>
+          <t>Helena Gonçalves</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -558,45 +558,45 @@
         <v>45099</v>
       </c>
       <c r="G4" t="n">
-        <v>5277.34</v>
+        <v>7009.13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>228</v>
+        <v>79966</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sr. Vicente Ramos</t>
+          <t>Valentina Caldeira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45106</v>
+        <v>45100</v>
       </c>
       <c r="G5" t="n">
-        <v>3689.08</v>
+        <v>7501.39</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>37771</v>
+        <v>85348</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sophie Melo</t>
+          <t>Kamilly Moura</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,56 +610,56 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45097</v>
+        <v>45094</v>
       </c>
       <c r="G6" t="n">
-        <v>4496.52</v>
+        <v>7273.87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>64995</v>
+        <v>82320</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Srta. Sabrina Rodrigues</t>
+          <t>Igor Mendes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45105</v>
+        <v>45090</v>
       </c>
       <c r="G7" t="n">
-        <v>11267.01</v>
+        <v>7451.87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>25492</v>
+        <v>77879</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Daniel da Luz</t>
+          <t>Helena da Luz</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,100 +668,100 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45080</v>
+        <v>45090</v>
       </c>
       <c r="G8" t="n">
-        <v>6803.73</v>
+        <v>7812.16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>97895</v>
+        <v>73193</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ana Julia Cunha</t>
+          <t>Isadora Oliveira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45081</v>
+        <v>45098</v>
       </c>
       <c r="G9" t="n">
-        <v>5851.18</v>
+        <v>4783.52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>79999</v>
+        <v>35486</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Eduarda Rocha</t>
+          <t>Lucas Gabriel da Luz</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45096</v>
+        <v>45105</v>
       </c>
       <c r="G10" t="n">
-        <v>5381.38</v>
+        <v>6689.97</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>95168</v>
+        <v>20383</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Davi Luiz Rezende</t>
+          <t>Davi Lucca da Rosa</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45091</v>
+        <v>45097</v>
       </c>
       <c r="G11" t="n">
-        <v>7842.11</v>
+        <v>12232.71</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_41.xlsx
+++ b/data/input/absenteeism_data_41.xlsx
@@ -476,45 +476,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>24460</v>
+        <v>66326</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ana Julia da Paz</t>
+          <t>Ana Lívia Lima</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45078</v>
+        <v>45090</v>
       </c>
       <c r="G2" t="n">
-        <v>6234.81</v>
+        <v>3551.41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>92848</v>
+        <v>50479</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dr. Bernardo da Rocha</t>
+          <t>Ana Clara Cunha</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,22 +523,22 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45078</v>
+        <v>45098</v>
       </c>
       <c r="G3" t="n">
-        <v>10630.08</v>
+        <v>10792.84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>73947</v>
+        <v>93306</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Helena Gonçalves</t>
+          <t>Isabella da Costa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,84 +548,84 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45099</v>
+        <v>45081</v>
       </c>
       <c r="G4" t="n">
-        <v>7009.13</v>
+        <v>10393.51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>79966</v>
+        <v>93496</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Valentina Caldeira</t>
+          <t>Stella da Mata</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45100</v>
+        <v>45105</v>
       </c>
       <c r="G5" t="n">
-        <v>7501.39</v>
+        <v>11177.84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>85348</v>
+        <v>21053</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Kamilly Moura</t>
+          <t>Vicente Costela</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45094</v>
+        <v>45087</v>
       </c>
       <c r="G6" t="n">
-        <v>7273.87</v>
+        <v>10453.91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>82320</v>
+        <v>56640</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Igor Mendes</t>
+          <t>Pedro Silva</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,133 +635,133 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45090</v>
+        <v>45095</v>
       </c>
       <c r="G7" t="n">
-        <v>7451.87</v>
+        <v>7568.39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>77879</v>
+        <v>41497</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Helena da Luz</t>
+          <t>Letícia Ribeiro</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45090</v>
+        <v>45103</v>
       </c>
       <c r="G8" t="n">
-        <v>7812.16</v>
+        <v>7113.78</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>73193</v>
+        <v>37434</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Isadora Oliveira</t>
+          <t>Dr. Thales Aragão</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45098</v>
+        <v>45105</v>
       </c>
       <c r="G9" t="n">
-        <v>4783.52</v>
+        <v>9091.67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>35486</v>
+        <v>25892</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Lucas Gabriel da Luz</t>
+          <t>Paulo Lima</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45105</v>
+        <v>45096</v>
       </c>
       <c r="G10" t="n">
-        <v>6689.97</v>
+        <v>8043.45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>20383</v>
+        <v>81733</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Davi Lucca da Rosa</t>
+          <t>Gustavo Henrique Teixeira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>45097</v>
       </c>
       <c r="G11" t="n">
-        <v>12232.71</v>
+        <v>11635.56</v>
       </c>
     </row>
   </sheetData>
